--- a/biology/Mycologie/Phragmidium/Phragmidium.xlsx
+++ b/biology/Mycologie/Phragmidium/Phragmidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phragmidium est un genre de champignons basidiomycètes de la famille des Phragmidiaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Phragmidium Link, 1816[1].
-Phragmidium a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Phragmidium Link, 1816.
+Phragmidium a pour synonymes :
 Ameris Arthur, 1906
 Aregma Fr., 1815
 Earlea Arthur, 1906
@@ -554,10 +568,12 @@
           <t>Liste des espèces, formes et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon MycoBank                                            (3 décembre 2023)[1] :
+Selon MycoBank                                            (3 décembre 2023) :
 Phragmidium acaenae G. Cunn., 1924
 Phragmidium acaenincola Petr., 1955
 Phragmidium acuminatum (Fr.) Cooke, 1871
@@ -772,7 +788,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Heinrich Friedrich Link, « Observationes in ordines plantarum naturales. 2. », Magazin der Gesellschaft Naturforschenden Freunde Berlin, vol. 7,‎ 1816, p. 25-45</t>
         </is>
